--- a/CrowdSourcingStudy/Results/f951101.xlsx
+++ b/CrowdSourcingStudy/Results/f951101.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
-    <sheet name="P1" sheetId="3" r:id="rId2"/>
+    <sheet name="Filtred_data" sheetId="4" r:id="rId2"/>
+    <sheet name="P1" sheetId="3" r:id="rId3"/>
+    <sheet name="P2" sheetId="5" r:id="rId4"/>
+    <sheet name="P3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="cf_report_951101_full" localSheetId="0">Feuil2!$A$1:$Q$11</definedName>
+    <definedName name="cf_report_951101_full" localSheetId="1">Filtred_data!$A$1:$Q$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -42,11 +46,34 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="cf_report_951101_full1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Lydia\Documents\GitHub\Discolog\CrowdSourcingStudy\Results\cf_report_951101_full.csv" decimal="," thousands=" " comma="1">
+      <textFields count="17">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -122,12 +149,48 @@
   <si>
     <t>Agent B</t>
   </si>
+  <si>
+    <t>Principal :speaker_(a/b)_takes_the_preferences_of_the_other_speaker_into_account_in_choosing_a_restaurant</t>
+  </si>
+  <si>
+    <t>Reverse : speaker_(a/b)_only_considers_hisher_own_preferences_in_choosing_a_restaurant</t>
+  </si>
+  <si>
+    <t>Max-Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne générale : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecart Type: </t>
+  </si>
+  <si>
+    <t>Principal : speaker_(a/b)_is_demanding_concerning_the_choice_of_the_restaurant</t>
+  </si>
+  <si>
+    <t>Reverse :speaker_(a/b)_is_flexible_in_the_choice_of_the_restaurant</t>
+  </si>
+  <si>
+    <t>Principal : speaker_(a/b)_leads_the_dialogue</t>
+  </si>
+  <si>
+    <t>Reverse :speaker_(a/b)_is_being_guided_by_the_other_speaker_during_the_dialogue</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Reverse neg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,31 +198,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,19 +236,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,6 +327,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cf_report_951101_full" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cf_report_951101_full" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O5" sqref="A1:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,148 +1271,3024 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I12"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2135152632</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2135156372</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2135156791</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2135166785</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2135177433</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2135180341</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2135181382</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(4-C6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E12" si="0">AVERAGE(B6,D6)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <f>(4-J6)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(I6,K6)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D12" si="1">(4-C7)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K12" si="2">(4-J7)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L12" si="3">AVERAGE(I7,K7)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12" s="5">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1">
+        <f>AVERAGE(E6:E12)</f>
+        <v>2.3571428571428572</v>
+      </c>
+      <c r="E16" s="9">
+        <f xml:space="preserve"> C16-2</f>
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1">
+        <f>AVERAGE(L6:L12)</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="L16" s="9">
+        <f xml:space="preserve"> J16-2</f>
+        <v>-0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <f>_xlfn.STDEV.S(E6:E12)</f>
+        <v>0.98802352005935346</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <f>_xlfn.STDEV.S(L6:L12)</f>
+        <v>0.95118973121134176</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C6+1</f>
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <f>5-C23</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E29" si="4">AVERAGE(B23,D23)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>I6+1</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <f>J6+1</f>
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
+        <f>5-J23</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L29" si="5">AVERAGE(I23,K23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:C29" si="6">B7+1</f>
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D29" si="7">5-C24</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:J29" si="8">I7+1</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K29" si="9">5-J24</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="16">
+        <f>AVERAGE(E23:E29)</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="16">
+        <f>AVERAGE(L23:L29)</f>
+        <v>2.2142857142857144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="16">
+        <f>_xlfn.STDEV.S(E23:E29)</f>
+        <v>0.98802352005935346</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="16">
+        <f>_xlfn.STDEV.S(L23:L29)</f>
+        <v>0.95118973121134198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <f>AVERAGE(B23:B31)</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(C23:C29)</f>
+        <v>3</v>
+      </c>
+      <c r="H38" s="16">
+        <f>AVERAGE(I23:I31)</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="I38" s="16">
+        <f>AVERAGE(J23:J29)</f>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <f>_xlfn.STDEV.S(B23:B31)</f>
+        <v>0.95118973121134198</v>
+      </c>
+      <c r="B39" s="16">
+        <f>_xlfn.STDEV.S(C23:C29)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H39" s="16">
+        <f>_xlfn.STDEV.S(I23:I31)</f>
+        <v>0.95118973121134198</v>
+      </c>
+      <c r="I39" s="16">
+        <f>_xlfn.STDEV.S(J23:J29)</f>
+        <v>1.1126972805283737</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(4-C6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E14" si="0">AVERAGE(B6,D6)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <f>(4-J6)</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(I6,K6)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D14" si="1">(4-C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K14" si="2">(4-J7)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L14" si="3">AVERAGE(I7,K7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12" s="5">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="5">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14" s="5">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(E6:E12)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E16" s="9">
+        <f xml:space="preserve"> C16-2</f>
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(L6:L12)</f>
+        <v>2.2142857142857144</v>
+      </c>
+      <c r="L16" s="9">
+        <f xml:space="preserve"> J16-2</f>
+        <v>0.21428571428571441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <f>_xlfn.STDEV.S(E6:E12)</f>
+        <v>0.60749289629395575</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <f>_xlfn.STDEV.S(L6:L12)</f>
+        <v>0.6986381310057721</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B6+1</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <f>5-C23</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E29" si="4">AVERAGE(B23,D23)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>I6+1</f>
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <f>J6+1</f>
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <f>5-J23</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L29" si="5">AVERAGE(I23,K23)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:C29" si="6">B7+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D29" si="7">5-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:J29" si="8">I7+1</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K29" si="9">5-J24</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="15">
+        <f>AVERAGE(E23:E29)</f>
+        <v>1.9285714285714286</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="15">
+        <f>AVERAGE(L23:L29)</f>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="15">
+        <f>_xlfn.STDEV.S(E23:E29)</f>
+        <v>0.60749289629395609</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="15">
+        <f>_xlfn.STDEV.S(L23:L29)</f>
+        <v>0.6986381310057721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <f>AVERAGE(B23:B31)</f>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="B38" s="15">
+        <f>AVERAGE(C23:C29)</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="H38" s="15">
+        <f>AVERAGE(I23:I31)</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="I38" s="15">
+        <f>AVERAGE(J23:J29)</f>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <f>_xlfn.STDEV.S(B23:B31)</f>
+        <v>1.2149857925879122</v>
+      </c>
+      <c r="B39" s="15">
+        <f>_xlfn.STDEV.S(C23:C29)</f>
+        <v>0.75592894601845306</v>
+      </c>
+      <c r="H39" s="15">
+        <f>_xlfn.STDEV.S(I23:I31)</f>
+        <v>1.2149857925879115</v>
+      </c>
+      <c r="I39" s="15">
+        <f>_xlfn.STDEV.S(J23:J29)</f>
+        <v>0.5345224838248489</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="H21:L21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(4-C6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E14" si="0">AVERAGE(B6,D6)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <f>(4-J6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(I6,K6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D14" si="1">(4-C7)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K14" si="2">(4-J7)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L14" si="3">AVERAGE(I7,K7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12" s="5">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(E6:E12)</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="E16" s="9">
+        <f xml:space="preserve"> C16-2</f>
+        <v>0.57142857142857162</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(L6:L12)</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="L16" s="9">
+        <f xml:space="preserve"> J16-2</f>
+        <v>-0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <f>_xlfn.STDEV.S(E6:E12)</f>
+        <v>0.93222723573580446</v>
+      </c>
+      <c r="E17" s="9">
+        <f xml:space="preserve"> C17-2</f>
+        <v>-1.0677727642641957</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <f>_xlfn.STDEV.S(L6:L12)</f>
+        <v>0.97590007294853331</v>
+      </c>
+      <c r="L17" s="9">
+        <f xml:space="preserve"> J17-2</f>
+        <v>-1.0240999270514668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B6+1</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <f>5-C23</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E31" si="4">AVERAGE(B23,D23)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>I6+1</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <f>J6+1</f>
+        <v>5</v>
+      </c>
+      <c r="K23" s="1">
+        <f>5-J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L31" si="5">AVERAGE(I23,K23)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:C31" si="6">B7+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D31" si="7">5-C24</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:J31" si="8">I7+1</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K31" si="9">5-J24</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="16">
+        <f>AVERAGE(E23:E29)</f>
+        <v>3.0714285714285716</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="16">
+        <f>AVERAGE(L23:L29)</f>
+        <v>2.0714285714285716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="16">
+        <f>_xlfn.STDEV.S(E23:E29)</f>
+        <v>0.93222723573580391</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="16">
+        <f>_xlfn.STDEV.S(L23:L29)</f>
+        <v>0.97590007294853331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <f>AVERAGE(B23:B31)</f>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(C23:C29)</f>
+        <v>3</v>
+      </c>
+      <c r="H38" s="16">
+        <f>AVERAGE(I23:I31)</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="I38" s="16">
+        <f>AVERAGE(J23:J29)</f>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <f>_xlfn.STDEV.S(B23:B31)</f>
+        <v>0.89973541084243769</v>
+      </c>
+      <c r="B39" s="16">
+        <f>_xlfn.STDEV.S(C23:C29)</f>
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="H39" s="16">
+        <f>_xlfn.STDEV.S(I23:I31)</f>
+        <v>0.95118973121134198</v>
+      </c>
+      <c r="I39" s="16">
+        <f>_xlfn.STDEV.S(J23:J29)</f>
+        <v>1.5118578920369086</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="H21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CrowdSourcingStudy/Results/f951101.xlsx
+++ b/CrowdSourcingStudy/Results/f951101.xlsx
@@ -188,7 +188,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -282,14 +282,23 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,18 +308,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,6 +323,729 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>H1:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t>  Agents consider other preferences</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Agent A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P1'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.98802352005935346</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P1'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.98802352005935346</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P1'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.8571428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Agent B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P1'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.95118973121134198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P1'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.95118973121134198</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P1'!$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.2142857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="55421952"/>
+        <c:axId val="44949504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55421952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44949504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44949504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55421952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>H2: Dominant agent is more</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> demanding</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Agent A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P2'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.60749289629395609</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P2'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.60749289629395609</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.9285714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Agent B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P2'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.6986381310057721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P2'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.6986381310057721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2'!$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="55420928"/>
+        <c:axId val="949440448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55420928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="949440448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949440448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55420928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>H3: dominant</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> agent leads the dialogue</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Agent A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P3'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.93222723573580391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P3'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.93222723573580391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P3'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0714285714285716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Agent B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P3'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.97590007294853331</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P3'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.97590007294853331</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P3'!$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0714285714285716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="64462336"/>
+        <c:axId val="949900352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64462336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="949900352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949900352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64462336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340517</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45243</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>654844</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55959</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>459580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>690561</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1697,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,20 +2437,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1745,7 +2468,7 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +2486,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6">
@@ -1780,8 +2503,8 @@
         <f t="shared" ref="E6:E12" si="0">AVERAGE(B6,D6)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="H6" s="5">
+      <c r="F6" s="3"/>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6">
@@ -1800,7 +2523,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7">
@@ -1817,8 +2540,8 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="5">
+      <c r="F7" s="3"/>
+      <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7">
@@ -1837,7 +2560,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8">
@@ -1854,8 +2577,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="H8" s="5">
+      <c r="F8" s="3"/>
+      <c r="H8" s="4">
         <v>3</v>
       </c>
       <c r="I8">
@@ -1874,7 +2597,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9">
@@ -1891,8 +2614,8 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="5">
+      <c r="F9" s="3"/>
+      <c r="H9" s="4">
         <v>4</v>
       </c>
       <c r="I9">
@@ -1911,7 +2634,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10">
@@ -1928,8 +2651,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="5">
+      <c r="F10" s="3"/>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
       <c r="I10">
@@ -1948,7 +2671,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11">
@@ -1965,8 +2688,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="5">
+      <c r="F11" s="3"/>
+      <c r="H11" s="4">
         <v>6</v>
       </c>
       <c r="I11">
@@ -1985,7 +2708,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12">
@@ -2002,8 +2725,8 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="H12" s="5">
+      <c r="F12" s="3"/>
+      <c r="H12" s="4">
         <v>7</v>
       </c>
       <c r="I12">
@@ -2022,53 +2745,53 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1">
         <f>AVERAGE(E6:E12)</f>
         <v>2.3571428571428572</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <f xml:space="preserve"> C16-2</f>
         <v>0.35714285714285721</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="1">
         <f>AVERAGE(L6:L12)</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <f xml:space="preserve"> J16-2</f>
         <v>-0.28571428571428581</v>
       </c>
@@ -2082,7 +2805,7 @@
         <f>_xlfn.STDEV.S(E6:E12)</f>
         <v>0.98802352005935346</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="6"/>
       <c r="H17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2091,73 +2814,73 @@
         <f>_xlfn.STDEV.S(L6:L12)</f>
         <v>0.95118973121134176</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="H21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1</v>
       </c>
       <c r="B23" s="1">
@@ -2176,7 +2899,7 @@
         <f t="shared" ref="E23:E29" si="4">AVERAGE(B23,D23)</f>
         <v>1.5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="1">
@@ -2197,7 +2920,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
       <c r="B24" s="1">
@@ -2216,7 +2939,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>2</v>
       </c>
       <c r="I24" s="1">
@@ -2237,7 +2960,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>3</v>
       </c>
       <c r="B25" s="1">
@@ -2256,7 +2979,7 @@
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>3</v>
       </c>
       <c r="I25" s="1">
@@ -2277,7 +3000,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="B26" s="1">
@@ -2296,7 +3019,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>4</v>
       </c>
       <c r="I26" s="1">
@@ -2317,7 +3040,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>5</v>
       </c>
       <c r="B27" s="1">
@@ -2336,7 +3059,7 @@
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>5</v>
       </c>
       <c r="I27" s="1">
@@ -2357,7 +3080,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>6</v>
       </c>
       <c r="B28" s="1">
@@ -2376,7 +3099,7 @@
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>6</v>
       </c>
       <c r="I28" s="1">
@@ -2397,7 +3120,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>7</v>
       </c>
       <c r="B29" s="1">
@@ -2416,7 +3139,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>7</v>
       </c>
       <c r="I29" s="1">
@@ -2437,24 +3160,24 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2464,14 +3187,14 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="11">
         <f>AVERAGE(E23:E29)</f>
         <v>2.8571428571428572</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="11">
         <f>AVERAGE(L23:L29)</f>
         <v>2.2142857142857144</v>
       </c>
@@ -2480,14 +3203,14 @@
       <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="11">
         <f>_xlfn.STDEV.S(E23:E29)</f>
         <v>0.98802352005935346</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="11">
         <f>_xlfn.STDEV.S(L23:L29)</f>
         <v>0.95118973121134198</v>
       </c>
@@ -2507,7 +3230,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="11">
         <f>AVERAGE(B23:B31)</f>
         <v>3.7142857142857144</v>
       </c>
@@ -2515,29 +3238,29 @@
         <f>AVERAGE(C23:C29)</f>
         <v>3</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="11">
         <f>AVERAGE(I23:I31)</f>
         <v>2.7142857142857144</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="11">
         <f>AVERAGE(J23:J29)</f>
         <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="11">
         <f>_xlfn.STDEV.S(B23:B31)</f>
         <v>0.95118973121134198</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="11">
         <f>_xlfn.STDEV.S(C23:C29)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="11">
         <f>_xlfn.STDEV.S(I23:I31)</f>
         <v>0.95118973121134198</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="11">
         <f>_xlfn.STDEV.S(J23:J29)</f>
         <v>1.1126972805283737</v>
       </c>
@@ -2553,6 +3276,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2560,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C34"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,20 +3301,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2608,7 +3332,7 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +3350,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6">
@@ -2643,8 +3367,8 @@
         <f t="shared" ref="E6:E14" si="0">AVERAGE(B6,D6)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="H6" s="5">
+      <c r="F6" s="3"/>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6">
@@ -2663,7 +3387,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7">
@@ -2680,8 +3404,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="5">
+      <c r="F7" s="3"/>
+      <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7">
@@ -2700,7 +3424,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8">
@@ -2717,8 +3441,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="H8" s="5">
+      <c r="F8" s="3"/>
+      <c r="H8" s="4">
         <v>3</v>
       </c>
       <c r="I8">
@@ -2737,7 +3461,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9">
@@ -2754,8 +3478,8 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="5">
+      <c r="F9" s="3"/>
+      <c r="H9" s="4">
         <v>4</v>
       </c>
       <c r="I9">
@@ -2774,7 +3498,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10">
@@ -2791,8 +3515,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="5">
+      <c r="F10" s="3"/>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
       <c r="I10">
@@ -2811,7 +3535,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11">
@@ -2828,8 +3552,8 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="5">
+      <c r="F11" s="3"/>
+      <c r="H11" s="4">
         <v>6</v>
       </c>
       <c r="I11">
@@ -2848,7 +3572,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12">
@@ -2865,8 +3589,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="H12" s="5">
+      <c r="F12" s="3"/>
+      <c r="H12" s="4">
         <v>7</v>
       </c>
       <c r="I12">
@@ -2885,7 +3609,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="1"/>
@@ -2898,8 +3622,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="H13" s="5">
+      <c r="F13" s="3"/>
+      <c r="H13" s="4">
         <v>8</v>
       </c>
       <c r="I13" s="1"/>
@@ -2914,7 +3638,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="1"/>
@@ -2927,8 +3651,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="H14" s="5">
+      <c r="F14" s="3"/>
+      <c r="H14" s="4">
         <v>9</v>
       </c>
       <c r="I14" s="1"/>
@@ -2950,7 +3674,7 @@
         <f>AVERAGE(E6:E12)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <f xml:space="preserve"> C16-2</f>
         <v>-0.5714285714285714</v>
       </c>
@@ -2961,7 +3685,7 @@
         <f>AVERAGE(L6:L12)</f>
         <v>2.2142857142857144</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <f xml:space="preserve"> J16-2</f>
         <v>0.21428571428571441</v>
       </c>
@@ -2974,7 +3698,7 @@
         <f>_xlfn.STDEV.S(E6:E12)</f>
         <v>0.60749289629395575</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="6"/>
       <c r="H17" t="s">
         <v>29</v>
       </c>
@@ -2982,67 +3706,67 @@
         <f>_xlfn.STDEV.S(L6:L12)</f>
         <v>0.6986381310057721</v>
       </c>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="E20" s="8"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="H21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1</v>
       </c>
       <c r="B23" s="1">
@@ -3061,7 +3785,7 @@
         <f t="shared" ref="E23:E29" si="4">AVERAGE(B23,D23)</f>
         <v>2.5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="1">
@@ -3082,7 +3806,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
       <c r="B24" s="1">
@@ -3101,7 +3825,7 @@
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>2</v>
       </c>
       <c r="I24" s="1">
@@ -3122,7 +3846,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>3</v>
       </c>
       <c r="B25" s="1">
@@ -3141,7 +3865,7 @@
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>3</v>
       </c>
       <c r="I25" s="1">
@@ -3162,7 +3886,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="B26" s="1">
@@ -3181,7 +3905,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>4</v>
       </c>
       <c r="I26" s="1">
@@ -3202,7 +3926,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>5</v>
       </c>
       <c r="B27" s="1">
@@ -3221,7 +3945,7 @@
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>5</v>
       </c>
       <c r="I27" s="1">
@@ -3242,7 +3966,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>6</v>
       </c>
       <c r="B28" s="1">
@@ -3261,7 +3985,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>6</v>
       </c>
       <c r="I28" s="1">
@@ -3282,7 +4006,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>7</v>
       </c>
       <c r="B29" s="1">
@@ -3301,7 +4025,7 @@
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>7</v>
       </c>
       <c r="I29" s="1">
@@ -3322,24 +4046,24 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3349,14 +4073,14 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="10">
         <f>AVERAGE(E23:E29)</f>
         <v>1.9285714285714286</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="10">
         <f>AVERAGE(L23:L29)</f>
         <v>2.7142857142857144</v>
       </c>
@@ -3365,14 +4089,14 @@
       <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="10">
         <f>_xlfn.STDEV.S(E23:E29)</f>
         <v>0.60749289629395609</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="10">
         <f>_xlfn.STDEV.S(L23:L29)</f>
         <v>0.6986381310057721</v>
       </c>
@@ -3392,37 +4116,37 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="10">
         <f>AVERAGE(B23:B31)</f>
         <v>3.1428571428571428</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="10">
         <f>AVERAGE(C23:C29)</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="10">
         <f>AVERAGE(I23:I31)</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="10">
         <f>AVERAGE(J23:J29)</f>
         <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="10">
         <f>_xlfn.STDEV.S(B23:B31)</f>
         <v>1.2149857925879122</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="10">
         <f>_xlfn.STDEV.S(C23:C29)</f>
         <v>0.75592894601845306</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="10">
         <f>_xlfn.STDEV.S(I23:I31)</f>
         <v>1.2149857925879115</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="10">
         <f>_xlfn.STDEV.S(J23:J29)</f>
         <v>0.5345224838248489</v>
       </c>
@@ -3435,6 +4159,7 @@
     <mergeCell ref="H21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3442,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,20 +4184,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3490,7 +4215,7 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +4233,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6">
@@ -3522,11 +4247,11 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E14" si="0">AVERAGE(B6,D6)</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="H6" s="5">
+        <f t="shared" ref="E6:E12" si="0">AVERAGE(B6,D6)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6">
@@ -3545,7 +4270,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7">
@@ -3555,15 +4280,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D14" si="1">(4-C7)</f>
+        <f t="shared" ref="D7:D12" si="1">(4-C7)</f>
         <v>2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="5">
+      <c r="F7" s="3"/>
+      <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7">
@@ -3573,16 +4298,16 @@
         <v>3</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="K7:K14" si="2">(4-J7)</f>
+        <f t="shared" ref="K7:K12" si="2">(4-J7)</f>
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L14" si="3">AVERAGE(I7,K7)</f>
+        <f t="shared" ref="L7:L12" si="3">AVERAGE(I7,K7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8">
@@ -3599,8 +4324,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="H8" s="5">
+      <c r="F8" s="3"/>
+      <c r="H8" s="4">
         <v>3</v>
       </c>
       <c r="I8">
@@ -3619,7 +4344,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9">
@@ -3636,8 +4361,8 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="5">
+      <c r="F9" s="3"/>
+      <c r="H9" s="4">
         <v>4</v>
       </c>
       <c r="I9">
@@ -3656,7 +4381,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10">
@@ -3673,8 +4398,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="5">
+      <c r="F10" s="3"/>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
       <c r="I10">
@@ -3693,7 +4418,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11">
@@ -3710,8 +4435,8 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="5">
+      <c r="F11" s="3"/>
+      <c r="H11" s="4">
         <v>6</v>
       </c>
       <c r="I11">
@@ -3730,7 +4455,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12">
@@ -3747,8 +4472,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="H12" s="5">
+      <c r="F12" s="3"/>
+      <c r="H12" s="4">
         <v>7</v>
       </c>
       <c r="I12">
@@ -3767,26 +4492,26 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3800,7 +4525,7 @@
         <f>AVERAGE(E6:E12)</f>
         <v>2.5714285714285716</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <f xml:space="preserve"> C16-2</f>
         <v>0.57142857142857162</v>
       </c>
@@ -3811,7 +4536,7 @@
         <f>AVERAGE(L6:L12)</f>
         <v>1.5714285714285714</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <f xml:space="preserve"> J16-2</f>
         <v>-0.4285714285714286</v>
       </c>
@@ -3824,7 +4549,7 @@
         <f>_xlfn.STDEV.S(E6:E12)</f>
         <v>0.93222723573580446</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <f xml:space="preserve"> C17-2</f>
         <v>-1.0677727642641957</v>
       </c>
@@ -3835,70 +4560,70 @@
         <f>_xlfn.STDEV.S(L6:L12)</f>
         <v>0.97590007294853331</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <f xml:space="preserve"> J17-2</f>
         <v>-1.0240999270514668</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="L20" s="12"/>
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="E20" s="8"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="H21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1</v>
       </c>
       <c r="B23" s="1">
@@ -3914,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:E31" si="4">AVERAGE(B23,D23)</f>
+        <f t="shared" ref="E23:E29" si="4">AVERAGE(B23,D23)</f>
         <v>3.5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="1">
@@ -3933,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" ref="L23:L31" si="5">AVERAGE(I23,K23)</f>
+        <f t="shared" ref="L23:L29" si="5">AVERAGE(I23,K23)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:C31" si="6">B7+1</f>
+        <f t="shared" ref="B24:C29" si="6">B7+1</f>
         <v>5</v>
       </c>
       <c r="C24" s="1">
@@ -3950,18 +4675,18 @@
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:D31" si="7">5-C24</f>
+        <f t="shared" ref="D24:D29" si="7">5-C24</f>
         <v>2</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>2</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24:J31" si="8">I7+1</f>
+        <f t="shared" ref="I24:J29" si="8">I7+1</f>
         <v>2</v>
       </c>
       <c r="J24" s="1">
@@ -3969,7 +4694,7 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" ref="K24:K31" si="9">5-J24</f>
+        <f t="shared" ref="K24:K29" si="9">5-J24</f>
         <v>1</v>
       </c>
       <c r="L24" s="1">
@@ -3978,7 +4703,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>3</v>
       </c>
       <c r="B25" s="1">
@@ -3997,7 +4722,7 @@
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>3</v>
       </c>
       <c r="I25" s="1">
@@ -4018,7 +4743,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="B26" s="1">
@@ -4037,7 +4762,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>4</v>
       </c>
       <c r="I26" s="1">
@@ -4058,7 +4783,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>5</v>
       </c>
       <c r="B27" s="1">
@@ -4077,7 +4802,7 @@
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>5</v>
       </c>
       <c r="I27" s="1">
@@ -4098,7 +4823,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>6</v>
       </c>
       <c r="B28" s="1">
@@ -4117,7 +4842,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>6</v>
       </c>
       <c r="I28" s="1">
@@ -4138,7 +4863,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>7</v>
       </c>
       <c r="B29" s="1">
@@ -4157,7 +4882,7 @@
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>7</v>
       </c>
       <c r="I29" s="1">
@@ -4178,24 +4903,24 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4205,14 +4930,14 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="11">
         <f>AVERAGE(E23:E29)</f>
         <v>3.0714285714285716</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="11">
         <f>AVERAGE(L23:L29)</f>
         <v>2.0714285714285716</v>
       </c>
@@ -4221,14 +4946,14 @@
       <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="11">
         <f>_xlfn.STDEV.S(E23:E29)</f>
         <v>0.93222723573580391</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="11">
         <f>_xlfn.STDEV.S(L23:L29)</f>
         <v>0.97590007294853331</v>
       </c>
@@ -4248,7 +4973,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="11">
         <f>AVERAGE(B23:B31)</f>
         <v>4.1428571428571432</v>
       </c>
@@ -4256,29 +4981,29 @@
         <f>AVERAGE(C23:C29)</f>
         <v>3</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="11">
         <f>AVERAGE(I23:I31)</f>
         <v>2.7142857142857144</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="11">
         <f>AVERAGE(J23:J29)</f>
         <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="11">
         <f>_xlfn.STDEV.S(B23:B31)</f>
         <v>0.89973541084243769</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="11">
         <f>_xlfn.STDEV.S(C23:C29)</f>
         <v>1.1547005383792515</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="11">
         <f>_xlfn.STDEV.S(I23:I31)</f>
         <v>0.95118973121134198</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="11">
         <f>_xlfn.STDEV.S(J23:J29)</f>
         <v>1.5118578920369086</v>
       </c>
@@ -4292,5 +5017,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CrowdSourcingStudy/Results/f951101.xlsx
+++ b/CrowdSourcingStudy/Results/f951101.xlsx
@@ -3284,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" activeCellId="4" sqref="J27 J25 J24 J23 I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
